--- a/outputs-r202/test-g__Treponema_D.xlsx
+++ b/outputs-r202/test-g__Treponema_D.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="23">
   <si>
     <t>Row</t>
   </si>
@@ -103,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -113,14 +113,66 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,165 +191,165 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="27" t="s">
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2771.5247342273365</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="27" t="s">
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>5132.2957421787605</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="27" t="s">
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>4282.3721856224274</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="27" t="s">
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>594.25070784828256</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="27" t="s">
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4464.7125551168829</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="27" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>6114.3546439625934</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="27" t="s">
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>98.547963399616208</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="27" t="s">
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>5291.5087994412652</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>5497.6100836598926</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>5527.6326460307009</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+      <c r="A12" s="27" t="s">
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>9604.9781981173946</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+      <c r="A13" s="27" t="s">
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>5838.201645903604</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
+      <c r="A14" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>11905.836408743249</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
+      <c r="A15" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>1129.4691393411838</v>
       </c>
       <c r="C15">
         <v>1</v>
